--- a/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C04-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1407159969663743</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1044457710425061</v>
+        <v>0.104445771042506</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1786018586168106</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1505277532798719</v>
+        <v>0.1459164516747892</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2392198123264539</v>
+        <v>0.2467762429836879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1505464819371362</v>
+        <v>0.1535462617774278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1192884478564554</v>
+        <v>0.1175846353158407</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1085298008378666</v>
+        <v>0.1104233793027751</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1495362880936679</v>
+        <v>0.1507757859748978</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09455767418303342</v>
+        <v>0.1026675029431768</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07901946150715818</v>
+        <v>0.07958959101761078</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1464154038869354</v>
+        <v>0.143850464090623</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2141665461001494</v>
+        <v>0.2127411571592296</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1404734714309228</v>
+        <v>0.1354930059712534</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1069297040500845</v>
+        <v>0.1061836221395249</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2652379755877013</v>
+        <v>0.2675076234734686</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3583485280633398</v>
+        <v>0.3596235093079728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2627662817738333</v>
+        <v>0.2651481357980813</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1947506313343509</v>
+        <v>0.1957549489886071</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2169386901023497</v>
+        <v>0.2090681045563848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2603098897761768</v>
+        <v>0.2563752242881942</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1867138425126985</v>
+        <v>0.1967390450563302</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1324751384116914</v>
+        <v>0.1365798235544281</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2222213051566671</v>
+        <v>0.2205829848432466</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.296567196169108</v>
+        <v>0.2911083110994408</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2128147970267691</v>
+        <v>0.2094848761048932</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1542713591092513</v>
+        <v>0.1541701843595933</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1291014696853951</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07915267420344033</v>
+        <v>0.0791526742034403</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2151794094358215</v>
@@ -833,7 +833,7 @@
         <v>0.1553029640023772</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07761072719502619</v>
+        <v>0.07761072719502621</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1931348332216919</v>
+        <v>0.1974850215583437</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2377371191083338</v>
+        <v>0.2362848541192548</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1457018791740284</v>
+        <v>0.1455250076203802</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05241527649957451</v>
+        <v>0.05318017513752196</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1581203829550847</v>
+        <v>0.1620962586814501</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1437480174857725</v>
+        <v>0.1430607185176267</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09787577807192725</v>
+        <v>0.09943805128118026</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06019994007826678</v>
+        <v>0.0612027833462922</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.190789327784398</v>
+        <v>0.1872376601470974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1973061572726405</v>
+        <v>0.1995687084634827</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1313335143324013</v>
+        <v>0.1311671767249844</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06137227020998931</v>
+        <v>0.0623910962065574</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2819342540708288</v>
+        <v>0.2819384140226846</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3302057200903186</v>
+        <v>0.3293835932230146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2288249485632584</v>
+        <v>0.2286301445893825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1105298565417682</v>
+        <v>0.1096487703621101</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2328935872921047</v>
+        <v>0.235810307324805</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2177261426407451</v>
+        <v>0.2172899011729926</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1652320313318956</v>
+        <v>0.1695395124923587</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09948368128924164</v>
+        <v>0.1017057545478125</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2462336316484693</v>
+        <v>0.2455707085926091</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.257292465729045</v>
+        <v>0.2586086117345373</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1861116795007743</v>
+        <v>0.1876694981345875</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09600718028591267</v>
+        <v>0.0987202197735096</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1624246006612587</v>
+        <v>0.1632162766790047</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2245243621880672</v>
+        <v>0.2280137361297111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08197735493422451</v>
+        <v>0.0772288739113569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.157526277247295</v>
+        <v>0.1587556633150708</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.092331703738582</v>
+        <v>0.09126392591769433</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1587303346600754</v>
+        <v>0.1576881755759393</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05797862516638646</v>
+        <v>0.0560661759382405</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1338934838882598</v>
+        <v>0.1338913282967759</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.133596824123976</v>
+        <v>0.1343104430147742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2024579404872373</v>
+        <v>0.2030929976771814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07657893744952442</v>
+        <v>0.07461095807511796</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1533902120907362</v>
+        <v>0.1532312741866899</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2685891585159649</v>
+        <v>0.2711043277649886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3313705750272779</v>
+        <v>0.3394502137666147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1505135869039396</v>
+        <v>0.1488053444314607</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2388216517965191</v>
+        <v>0.2394342790233783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1686160259321193</v>
+        <v>0.1705109581506759</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2461337693564724</v>
+        <v>0.2451080037014098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1220538387208447</v>
+        <v>0.120664443479906</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1943601775132501</v>
+        <v>0.1952627338508297</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1985334598123985</v>
+        <v>0.1989320677934149</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2711678442364668</v>
+        <v>0.2759009204768194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1226950418923961</v>
+        <v>0.121474291913023</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2049848650248724</v>
+        <v>0.2040282651112541</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1171257026444937</v>
+        <v>0.1192327350572162</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.228704632969935</v>
+        <v>0.2361461024635085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1848204385366188</v>
+        <v>0.1851064314531085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.128064229961938</v>
+        <v>0.1245469539180655</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08220934589970601</v>
+        <v>0.08120501851361617</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1421655572666174</v>
+        <v>0.1443840157971977</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.095986192658803</v>
+        <v>0.09746844893213445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07832832971262479</v>
+        <v>0.08117256705861645</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1086763741253789</v>
+        <v>0.111311765654581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1995130316435323</v>
+        <v>0.199510629851852</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1508377930707731</v>
+        <v>0.1499624481332059</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1097409862847877</v>
+        <v>0.1085854343460681</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2013612011278547</v>
+        <v>0.204835085931624</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3367340389939243</v>
+        <v>0.3454191930263358</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2851996052366287</v>
+        <v>0.2810326111365331</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2279507766623839</v>
+        <v>0.2256017509640921</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1521584872006355</v>
+        <v>0.1557269885713918</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2296156378538474</v>
+        <v>0.2303756858778868</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1752459302533332</v>
+        <v>0.1725504982049452</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1293387105453581</v>
+        <v>0.1318307332659749</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1640687855261677</v>
+        <v>0.1670222060534699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.268379614360874</v>
+        <v>0.2682067693536966</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2134323082199517</v>
+        <v>0.210231469654601</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1686411281459788</v>
+        <v>0.1637128314879161</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1563234575612502</v>
+        <v>0.1591308932484129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2234352359184195</v>
+        <v>0.2245468356686526</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.108058555814243</v>
+        <v>0.1113725419501547</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1778788217788567</v>
+        <v>0.1776606052284982</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1004257741420097</v>
+        <v>0.1032296088257849</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1645626305480252</v>
+        <v>0.1710446246334264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1049208027205557</v>
+        <v>0.1027959166613899</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1055335600592995</v>
+        <v>0.1082486599210627</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1416710014372495</v>
+        <v>0.1432220157334357</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2041984834837436</v>
+        <v>0.2133367615034708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.123785061818194</v>
+        <v>0.1208219953550237</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1508221672643205</v>
+        <v>0.1519650334570627</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2768569870434964</v>
+        <v>0.2797642445863789</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3568334500490092</v>
+        <v>0.3682355194283179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2518995980594699</v>
+        <v>0.2445541027695504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2770607194573921</v>
+        <v>0.2774412101642825</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.219637753760522</v>
+        <v>0.2167721456177575</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2848790138989423</v>
+        <v>0.2821827785800222</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.235383914812291</v>
+        <v>0.2242573000869804</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1690318173956896</v>
+        <v>0.1704332422840382</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2285999470244406</v>
+        <v>0.2243562328682166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3020356056750694</v>
+        <v>0.3064872566640631</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2141458152884316</v>
+        <v>0.2118038110195029</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2110928064456526</v>
+        <v>0.2087806989039067</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2025085229612038</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2019279326569567</v>
+        <v>0.2019279326569568</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.1287298690874597</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1104013672119226</v>
+        <v>0.1059191298251551</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2640479721852833</v>
+        <v>0.2617229601356685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2259266514996198</v>
+        <v>0.2250959426720535</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1635613895218048</v>
+        <v>0.1641661399292809</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06740740715687002</v>
+        <v>0.06131524964949633</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1842337946462799</v>
+        <v>0.182373399283562</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1554377362792829</v>
+        <v>0.1519456759140784</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1686652593119673</v>
+        <v>0.1691206665644115</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09509608242590099</v>
+        <v>0.09714415084776266</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2397356171644436</v>
+        <v>0.24022536887864</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2010957729382952</v>
+        <v>0.2035021280976379</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1768015719082004</v>
+        <v>0.1737468638714682</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2185393712486783</v>
+        <v>0.2120816865030245</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3832063265501348</v>
+        <v>0.3821003564391999</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3449347478877903</v>
+        <v>0.3439464300823313</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2467548149992021</v>
+        <v>0.2431357764622825</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1495022758622943</v>
+        <v>0.149051011317025</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.287847188522983</v>
+        <v>0.2884066728000027</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2603782584165191</v>
+        <v>0.2602348930066617</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2405062639077823</v>
+        <v>0.2436305166416639</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1670268748716807</v>
+        <v>0.1647885288256858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3223816023942728</v>
+        <v>0.3155614374571244</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2836653847602922</v>
+        <v>0.2830718536686517</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2302025703839971</v>
+        <v>0.2281960342502239</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.1032443179348706</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09197902587905696</v>
+        <v>0.09197902587905693</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1725339950793343</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1596011499378955</v>
+        <v>0.1591769656139968</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1684672811279343</v>
+        <v>0.1709178796653012</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1014049457753233</v>
+        <v>0.1055116629738804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09914175912294894</v>
+        <v>0.09810240174723082</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1237901250246937</v>
+        <v>0.1228893995472535</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1031621134421851</v>
+        <v>0.1073990286215459</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07535820481042538</v>
+        <v>0.0764214153537954</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07510739011789405</v>
+        <v>0.07538499528453894</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1490684846010999</v>
+        <v>0.1508356513574401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1447426000873267</v>
+        <v>0.14684084231272</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09782583453088166</v>
+        <v>0.09607237222788559</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0923873384182079</v>
+        <v>0.09140703238810513</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2335419480348843</v>
+        <v>0.232295237035912</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2374480365418308</v>
+        <v>0.2429271819037079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1751367822752646</v>
+        <v>0.1736648785533321</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1554154803391622</v>
+        <v>0.1563202994755639</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1866711195451267</v>
+        <v>0.1849978548316747</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1621418286283054</v>
+        <v>0.1599204193731604</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1373842003138462</v>
+        <v>0.1346057728498882</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.113623171260175</v>
+        <v>0.1127299414669077</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.196342935329632</v>
+        <v>0.1977898395304725</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1887078146642024</v>
+        <v>0.1912607092505283</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1429804275848369</v>
+        <v>0.1413168453314392</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1260531888860112</v>
+        <v>0.1255314876630429</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.1636983278996489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2193593849353607</v>
+        <v>0.2193593849353608</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1441378550861767</v>
@@ -1649,7 +1649,7 @@
         <v>0.1482542856347121</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.1672997899038094</v>
+        <v>0.1672997899038093</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1628770559893533</v>
+        <v>0.1612126055327564</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1386886334792921</v>
+        <v>0.1380975978517343</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.136676079693143</v>
+        <v>0.1350572614738759</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1892863652770237</v>
+        <v>0.1910156553107918</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1163072089219042</v>
+        <v>0.1172323534390268</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1275680668628752</v>
+        <v>0.1258736695481046</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1081583924364615</v>
+        <v>0.1096652402412549</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.09911819076801368</v>
+        <v>0.09999972527470211</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1472147969386155</v>
+        <v>0.1471525660985905</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1410089279442855</v>
+        <v>0.1388474341218764</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1297116016802885</v>
+        <v>0.1287427152123592</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1488433913042844</v>
+        <v>0.1494570258091486</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2355193942307892</v>
+        <v>0.2289224618433504</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2001251591431149</v>
+        <v>0.2010603229252729</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.195895231410346</v>
+        <v>0.190756256047657</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2524600105561374</v>
+        <v>0.2502880799154779</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1760140026870724</v>
+        <v>0.1755720766845397</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.183557104232146</v>
+        <v>0.1823688352536404</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1646108830319338</v>
+        <v>0.1619583494012503</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1399374598023235</v>
+        <v>0.1381903979605493</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1924095420090336</v>
+        <v>0.1929896477820444</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1819130257890653</v>
+        <v>0.1819538336651793</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1673044826316831</v>
+        <v>0.1696154429495078</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1870768686991501</v>
+        <v>0.1888388508124481</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>28825</v>
+        <v>27942</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>59939</v>
+        <v>61832</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>36917</v>
+        <v>37652</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>35896</v>
+        <v>35383</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21839</v>
+        <v>22220</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>37270</v>
+        <v>37579</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23189</v>
+        <v>25178</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24454</v>
+        <v>24630</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>57500</v>
+        <v>56492</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>107040</v>
+        <v>106328</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68896</v>
+        <v>66453</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>65268</v>
+        <v>64812</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50791</v>
+        <v>51226</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>89788</v>
+        <v>90107</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64435</v>
+        <v>65019</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58604</v>
+        <v>58906</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43653</v>
+        <v>42069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64879</v>
+        <v>63899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45790</v>
+        <v>48248</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>40996</v>
+        <v>42267</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>87270</v>
+        <v>86626</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>148224</v>
+        <v>145496</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>104377</v>
+        <v>102743</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>94164</v>
+        <v>94103</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>79138</v>
+        <v>80921</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>96600</v>
+        <v>96010</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52914</v>
+        <v>52850</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>27153</v>
+        <v>27549</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>69763</v>
+        <v>71517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62936</v>
+        <v>62635</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>38497</v>
+        <v>39112</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32003</v>
+        <v>32536</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>162354</v>
+        <v>159331</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>166557</v>
+        <v>168467</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>99353</v>
+        <v>99227</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>64419</v>
+        <v>65488</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>115524</v>
+        <v>115526</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>134172</v>
+        <v>133838</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83101</v>
+        <v>83030</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57258</v>
+        <v>56801</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>102753</v>
+        <v>104040</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95326</v>
+        <v>95135</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>64990</v>
+        <v>66684</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52887</v>
+        <v>54068</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>209534</v>
+        <v>208970</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>217194</v>
+        <v>218305</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>140792</v>
+        <v>141970</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>100773</v>
+        <v>103621</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38419</v>
+        <v>38607</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>65935</v>
+        <v>66959</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23815</v>
+        <v>22436</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>47294</v>
+        <v>47663</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26666</v>
+        <v>26358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>52183</v>
+        <v>51840</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17844</v>
+        <v>17255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>70184</v>
+        <v>70559</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>126013</v>
+        <v>126408</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45815</v>
+        <v>44637</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>98467</v>
+        <v>98365</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63531</v>
+        <v>64126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>97312</v>
+        <v>99684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43725</v>
+        <v>43229</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71702</v>
+        <v>71886</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>48697</v>
+        <v>49245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>80917</v>
+        <v>80580</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37564</v>
+        <v>37136</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>66414</v>
+        <v>66722</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>104298</v>
+        <v>104508</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>168779</v>
+        <v>171725</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>73405</v>
+        <v>72674</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>131587</v>
+        <v>130973</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31335</v>
+        <v>31898</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>71602</v>
+        <v>73932</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>60999</v>
+        <v>61094</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>47478</v>
+        <v>46174</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24624</v>
+        <v>24324</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>48736</v>
+        <v>49497</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33486</v>
+        <v>34003</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32868</v>
+        <v>34061</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>61627</v>
+        <v>63121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>130859</v>
+        <v>130857</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>102405</v>
+        <v>101811</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>86734</v>
+        <v>85821</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>53870</v>
+        <v>54800</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>105424</v>
+        <v>108143</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>94129</v>
+        <v>92754</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84510</v>
+        <v>83639</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45577</v>
+        <v>46646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>78716</v>
+        <v>78976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>61136</v>
+        <v>60196</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54272</v>
+        <v>55318</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93038</v>
+        <v>94712</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>176028</v>
+        <v>175914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>144901</v>
+        <v>142728</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>133286</v>
+        <v>129391</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26618</v>
+        <v>27096</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42913</v>
+        <v>43126</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12883</v>
+        <v>13278</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33672</v>
+        <v>33631</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>17465</v>
+        <v>17952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32184</v>
+        <v>33452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>15266</v>
+        <v>14957</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>23196</v>
+        <v>23793</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>48761</v>
+        <v>49295</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>79154</v>
+        <v>82696</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>32769</v>
+        <v>31984</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>61701</v>
+        <v>62169</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47143</v>
+        <v>47638</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>68533</v>
+        <v>70723</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30032</v>
+        <v>29156</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52447</v>
+        <v>52519</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>38196</v>
+        <v>37698</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>55715</v>
+        <v>55188</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>34248</v>
+        <v>32629</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>37154</v>
+        <v>37462</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>78680</v>
+        <v>77220</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>117079</v>
+        <v>118804</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>56689</v>
+        <v>56069</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>86358</v>
+        <v>85412</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>20896</v>
+        <v>20047</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>66005</v>
+        <v>65424</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52780</v>
+        <v>52586</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40847</v>
+        <v>40998</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>13784</v>
+        <v>12538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>48791</v>
+        <v>48298</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38414</v>
+        <v>37551</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42429</v>
+        <v>42544</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>37445</v>
+        <v>38251</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>123417</v>
+        <v>123669</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>96677</v>
+        <v>97834</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>88630</v>
+        <v>87098</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41363</v>
+        <v>40141</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95791</v>
+        <v>95515</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>80582</v>
+        <v>80351</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>61623</v>
+        <v>60720</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>30571</v>
+        <v>30479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>76231</v>
+        <v>76379</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>64349</v>
+        <v>64314</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>60502</v>
+        <v>61288</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>65768</v>
+        <v>64887</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>165963</v>
+        <v>162452</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>136373</v>
+        <v>136088</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>115399</v>
+        <v>114393</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>74107</v>
+        <v>73910</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>96884</v>
+        <v>98293</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>44852</v>
+        <v>46669</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>69169</v>
+        <v>68444</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>66768</v>
+        <v>66283</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>64472</v>
+        <v>67120</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>36703</v>
+        <v>37221</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>55684</v>
+        <v>55889</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>149619</v>
+        <v>151393</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>173698</v>
+        <v>176216</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>90915</v>
+        <v>89286</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>132951</v>
+        <v>131541</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>108439</v>
+        <v>107860</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>136554</v>
+        <v>139705</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>77464</v>
+        <v>76813</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>108430</v>
+        <v>109062</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>100684</v>
+        <v>99782</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>101332</v>
+        <v>99944</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>66913</v>
+        <v>65560</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>84239</v>
+        <v>83576</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>197068</v>
+        <v>198520</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>226459</v>
+        <v>229522</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>132880</v>
+        <v>131334</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>181399</v>
+        <v>180648</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>85600</v>
+        <v>84726</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>87915</v>
+        <v>87541</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>87507</v>
+        <v>86471</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>145722</v>
+        <v>147054</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>68902</v>
+        <v>69450</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>89455</v>
+        <v>88266</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>74774</v>
+        <v>75816</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>80316</v>
+        <v>81030</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>164581</v>
+        <v>164511</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>188266</v>
+        <v>185380</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>172723</v>
+        <v>171433</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>235196</v>
+        <v>236166</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>123778</v>
+        <v>120311</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>126860</v>
+        <v>127453</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>125422</v>
+        <v>122132</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>194357</v>
+        <v>192685</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>104273</v>
+        <v>104011</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>128716</v>
+        <v>127882</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>113802</v>
+        <v>111968</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>113392</v>
+        <v>111977</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>215107</v>
+        <v>215755</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>242878</v>
+        <v>242933</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>222781</v>
+        <v>225859</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>295611</v>
+        <v>298395</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
     </row>
     <row r="40">
